--- a/resource/Java単元課題4-チェックリスト.xlsx
+++ b/resource/Java単元課題4-チェックリスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KinjoAkari\研修用\axiz-php-master\text\Java\Java応用\課題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axiz\git\web-task-mock\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A407BCB6-D902-4C8B-8D79-124FF37981DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B73A66A-A5A1-4319-981B-0620A7C66B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="151">
   <si>
     <t>画面</t>
     <rPh sb="0" eb="2">
@@ -1837,6 +1837,9 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1850,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2535,24 +2538,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2561,6 +2546,24 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3254,28 +3257,28 @@
   </sheetPr>
   <dimension ref="B1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="7.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3298,8 +3301,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="55" thickTop="1" thickBot="1">
-      <c r="B3" s="42" t="s">
+    <row r="3" spans="2:9" ht="55.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="7">
@@ -3314,11 +3317,15 @@
       <c r="F3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="2:9" ht="72.5" thickTop="1">
-      <c r="B4" s="43"/>
+      <c r="G3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="10">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="46"/>
       <c r="C4" s="17">
         <v>1.2</v>
       </c>
@@ -3331,11 +3338,15 @@
       <c r="F4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:9" ht="60" customHeight="1">
-      <c r="B5" s="43"/>
+      <c r="G4" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="10">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="46"/>
       <c r="C5" s="17">
         <v>1.3</v>
       </c>
@@ -3348,11 +3359,15 @@
       <c r="F5" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="2:9" ht="36.5" thickBot="1">
-      <c r="B6" s="43"/>
+      <c r="G5" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="40">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="46"/>
       <c r="C6" s="23">
         <v>1.4</v>
       </c>
@@ -3365,11 +3380,15 @@
       <c r="F6" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-    </row>
-    <row r="7" spans="2:9" ht="36.5" customHeight="1" thickTop="1">
-      <c r="B7" s="42" t="s">
+      <c r="G6" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="40">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="36.450000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="45" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="7">
@@ -3384,11 +3403,15 @@
       <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:9" ht="54">
-      <c r="B8" s="43"/>
+      <c r="G7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="10">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B8" s="46"/>
       <c r="C8" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -3401,11 +3424,15 @@
       <c r="F8" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="2:9" ht="54">
-      <c r="B9" s="43"/>
+      <c r="G8" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H8" s="26">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
       <c r="C9" s="23">
         <v>2.2999999999999998</v>
       </c>
@@ -3418,11 +3445,15 @@
       <c r="F9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="2:9" ht="36">
-      <c r="B10" s="43"/>
+      <c r="G9" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="26">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B10" s="46"/>
       <c r="C10" s="17">
         <v>2.4</v>
       </c>
@@ -3435,12 +3466,16 @@
       <c r="F10" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="G10" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="26">
+        <v>44705</v>
+      </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="2:9" ht="62.5" customHeight="1">
-      <c r="B11" s="43"/>
+    <row r="11" spans="2:9" ht="62.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="46"/>
       <c r="C11" s="17">
         <v>2.5</v>
       </c>
@@ -3453,12 +3488,16 @@
       <c r="F11" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="G11" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="26">
+        <v>44705</v>
+      </c>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="2:9" ht="54">
-      <c r="B12" s="43"/>
+    <row r="12" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B12" s="46"/>
       <c r="C12" s="23">
         <v>2.6</v>
       </c>
@@ -3471,12 +3510,16 @@
       <c r="F12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="26">
+        <v>44706</v>
+      </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="2:9" ht="36">
-      <c r="B13" s="43"/>
+    <row r="13" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B13" s="46"/>
       <c r="C13" s="17">
         <v>2.7</v>
       </c>
@@ -3489,12 +3532,16 @@
       <c r="F13" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="G13" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H13" s="20">
+        <v>44707</v>
+      </c>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="2:9" ht="36">
-      <c r="B14" s="43"/>
+    <row r="14" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
       <c r="C14" s="23">
         <v>2.8</v>
       </c>
@@ -3507,12 +3554,16 @@
       <c r="F14" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="20">
+        <v>44707</v>
+      </c>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="2:9" ht="18.5" thickBot="1">
-      <c r="B15" s="45"/>
+    <row r="15" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
       <c r="C15" s="23">
         <v>2.9</v>
       </c>
@@ -3525,12 +3576,16 @@
       <c r="F15" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="G15" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="20">
+        <v>44707</v>
+      </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="2:9" ht="72.5" thickTop="1">
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="2:9" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="45" t="s">
         <v>114</v>
       </c>
       <c r="C16" s="7">
@@ -3545,12 +3600,16 @@
       <c r="F16" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="20">
+        <v>44707</v>
+      </c>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="2:9" ht="54">
-      <c r="B17" s="43"/>
+    <row r="17" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B17" s="46"/>
       <c r="C17" s="17">
         <v>3.2</v>
       </c>
@@ -3563,12 +3622,16 @@
       <c r="F17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="G17" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="20">
+        <v>44707</v>
+      </c>
       <c r="I17" s="22"/>
     </row>
-    <row r="18" spans="2:9" ht="54">
-      <c r="B18" s="43"/>
+    <row r="18" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B18" s="46"/>
       <c r="C18" s="23">
         <v>3.3</v>
       </c>
@@ -3581,12 +3644,16 @@
       <c r="F18" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="20">
+        <v>44707</v>
+      </c>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="2:9" ht="54">
-      <c r="B19" s="43"/>
+    <row r="19" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B19" s="46"/>
       <c r="C19" s="17">
         <v>3.4</v>
       </c>
@@ -3599,12 +3666,16 @@
       <c r="F19" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
+      <c r="G19" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="20">
+        <v>44707</v>
+      </c>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="2:9" ht="36">
-      <c r="B20" s="43"/>
+    <row r="20" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B20" s="46"/>
       <c r="C20" s="23">
         <v>3.5</v>
       </c>
@@ -3617,12 +3688,16 @@
       <c r="F20" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" s="20">
+        <v>44707</v>
+      </c>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="2:9" ht="54">
-      <c r="B21" s="43"/>
+    <row r="21" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B21" s="46"/>
       <c r="C21" s="17">
         <v>3.6</v>
       </c>
@@ -3635,12 +3710,16 @@
       <c r="F21" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="G21" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="20">
+        <v>44707</v>
+      </c>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="2:9" ht="54.5" thickBot="1">
-      <c r="B22" s="43"/>
+    <row r="22" spans="2:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="46"/>
       <c r="C22" s="23">
         <v>3.7</v>
       </c>
@@ -3653,12 +3732,16 @@
       <c r="F22" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
+      <c r="G22" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" s="20">
+        <v>44707</v>
+      </c>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="2:9" ht="36.5" thickTop="1">
-      <c r="B23" s="42" t="s">
+    <row r="23" spans="2:9" ht="36.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="45" t="s">
         <v>122</v>
       </c>
       <c r="C23" s="7">
@@ -3673,12 +3756,16 @@
       <c r="F23" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" s="20">
+        <v>44707</v>
+      </c>
       <c r="I23" s="22"/>
     </row>
-    <row r="24" spans="2:9" ht="36">
-      <c r="B24" s="43"/>
+    <row r="24" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B24" s="46"/>
       <c r="C24" s="17">
         <v>4.2</v>
       </c>
@@ -3691,12 +3778,16 @@
       <c r="F24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+      <c r="G24" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="20">
+        <v>44707</v>
+      </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="2:9" ht="54">
-      <c r="B25" s="43"/>
+    <row r="25" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B25" s="46"/>
       <c r="C25" s="23">
         <v>4.3</v>
       </c>
@@ -3709,12 +3800,16 @@
       <c r="F25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="G25" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" s="20">
+        <v>44706</v>
+      </c>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="2:9" ht="72">
-      <c r="B26" s="43"/>
+    <row r="26" spans="2:9" ht="72" x14ac:dyDescent="0.2">
+      <c r="B26" s="46"/>
       <c r="C26" s="23"/>
       <c r="D26" s="18" t="s">
         <v>135</v>
@@ -3725,12 +3820,16 @@
       <c r="F26" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="G26" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="20">
+        <v>44706</v>
+      </c>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="2:9" ht="36">
-      <c r="B27" s="46"/>
+    <row r="27" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B27" s="47"/>
       <c r="C27" s="17">
         <v>4.4000000000000004</v>
       </c>
@@ -3743,12 +3842,16 @@
       <c r="F27" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
+      <c r="G27" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="20">
+        <v>44707</v>
+      </c>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" spans="2:9" ht="36">
-      <c r="B28" s="47" t="s">
+    <row r="28" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B28" s="49" t="s">
         <v>126</v>
       </c>
       <c r="C28" s="23">
@@ -3763,12 +3866,16 @@
       <c r="F28" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
+      <c r="G28" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" s="26">
+        <v>44707</v>
+      </c>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="2:9" ht="36">
-      <c r="B29" s="43"/>
+    <row r="29" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B29" s="46"/>
       <c r="C29" s="23">
         <v>5.2</v>
       </c>
@@ -3781,12 +3888,16 @@
       <c r="F29" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
+      <c r="G29" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="20">
+        <v>44707</v>
+      </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="2:9" ht="54">
-      <c r="B30" s="43"/>
+    <row r="30" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B30" s="46"/>
       <c r="C30" s="23">
         <v>5.3</v>
       </c>
@@ -3799,12 +3910,16 @@
       <c r="F30" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
+      <c r="G30" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" s="26">
+        <v>44707</v>
+      </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="2:9" ht="54">
-      <c r="B31" s="43"/>
+    <row r="31" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B31" s="46"/>
       <c r="C31" s="23">
         <v>5.4</v>
       </c>
@@ -3817,12 +3932,16 @@
       <c r="F31" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
+      <c r="G31" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" s="20">
+        <v>44707</v>
+      </c>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="2:9" ht="36">
-      <c r="B32" s="43"/>
+    <row r="32" spans="2:9" ht="36" x14ac:dyDescent="0.2">
+      <c r="B32" s="46"/>
       <c r="C32" s="23">
         <v>5.5</v>
       </c>
@@ -3835,12 +3954,16 @@
       <c r="F32" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
+      <c r="G32" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" s="26">
+        <v>44707</v>
+      </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="2:9" ht="54">
-      <c r="B33" s="43"/>
+    <row r="33" spans="2:9" ht="54" x14ac:dyDescent="0.2">
+      <c r="B33" s="46"/>
       <c r="C33" s="23">
         <v>5.6</v>
       </c>
@@ -3853,12 +3976,16 @@
       <c r="F33" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
+      <c r="G33" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="26">
+        <v>44708</v>
+      </c>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="2:9" ht="72">
-      <c r="B34" s="43"/>
+    <row r="34" spans="2:9" ht="72" x14ac:dyDescent="0.2">
+      <c r="B34" s="46"/>
       <c r="C34" s="23">
         <v>5.7</v>
       </c>
@@ -3871,16 +3998,20 @@
       <c r="F34" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
+      <c r="G34" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" s="26">
+        <v>44707</v>
+      </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="2:9" ht="72.5" thickBot="1">
-      <c r="B35" s="44"/>
+    <row r="35" spans="2:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="50"/>
       <c r="C35" s="23">
         <v>5.8</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="42" t="s">
         <v>131</v>
       </c>
       <c r="E35" s="28" t="s">
@@ -3889,25 +4020,29 @@
       <c r="F35" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
+      <c r="G35" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" s="44">
+        <v>44707</v>
+      </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="37" spans="2:9" ht="18.5" thickBot="1">
+    <row r="37" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G37" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G38" s="31" t="s">
         <v>24</v>
       </c>
       <c r="H38" s="32">
         <f>COUNTIF($G$3:$G$35,"=○")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G39" s="33" t="s">
         <v>25</v>
       </c>
@@ -3916,22 +4051,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G40" s="33" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="34">
         <f>COUNTBLANK($G$3:$G$35)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="18.5" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G41" s="35" t="s">
         <v>1</v>
       </c>
       <c r="H41" s="36">
         <f>H38/(H38+H39+H40)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3943,151 +4078,151 @@
     <mergeCell ref="B28:B35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C3:H3 C5:C6 G19:H20 E19:E20 E22:H22 C7:H17 G30:H35 C23:H25 C27:H29 G26:H26 C18:C22 C26:E26 C30:D35">
-    <cfRule type="expression" dxfId="57" priority="51">
+  <conditionalFormatting sqref="C3:H3 C5:C6 G19:G20 E19:E20 E22:G22 G33:H35 C25:H25 C27:H28 G26:H26 C18:C22 C26:E26 C30:D35 C7:H14 C29:G29 G30:G32 H29:H32 C15:G17 C23:G24 H15:H24">
+    <cfRule type="expression" dxfId="1" priority="51">
       <formula>$G3="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="52">
+    <cfRule type="expression" dxfId="0" priority="52">
       <formula>$G3="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:H6">
-    <cfRule type="expression" dxfId="55" priority="43">
+    <cfRule type="expression" dxfId="57" priority="43">
       <formula>$G5="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="44">
+    <cfRule type="expression" dxfId="56" priority="44">
       <formula>$G5="○"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:H21">
-    <cfRule type="expression" dxfId="53" priority="41">
+  <conditionalFormatting sqref="E21:G21">
+    <cfRule type="expression" dxfId="55" priority="41">
       <formula>$G21="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="42">
+    <cfRule type="expression" dxfId="54" priority="42">
       <formula>$G21="○"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:H18">
-    <cfRule type="expression" dxfId="51" priority="39">
+  <conditionalFormatting sqref="D18:G18">
+    <cfRule type="expression" dxfId="53" priority="39">
       <formula>$G18="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="40">
+    <cfRule type="expression" dxfId="52" priority="40">
       <formula>$G18="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:H4">
-    <cfRule type="expression" dxfId="49" priority="37">
+    <cfRule type="expression" dxfId="51" priority="37">
       <formula>$G4="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="38">
+    <cfRule type="expression" dxfId="50" priority="38">
       <formula>$G4="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="47" priority="29">
+    <cfRule type="expression" dxfId="49" priority="29">
       <formula>$G19="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="30">
+    <cfRule type="expression" dxfId="48" priority="30">
       <formula>$G19="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="45" priority="27">
+    <cfRule type="expression" dxfId="47" priority="27">
       <formula>$G20="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="28">
+    <cfRule type="expression" dxfId="46" priority="28">
       <formula>$G20="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="expression" dxfId="43" priority="25">
+    <cfRule type="expression" dxfId="45" priority="25">
       <formula>$G22="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="26">
+    <cfRule type="expression" dxfId="44" priority="26">
       <formula>$G22="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="41" priority="23">
+    <cfRule type="expression" dxfId="43" priority="23">
       <formula>$G21="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="24">
+    <cfRule type="expression" dxfId="42" priority="24">
       <formula>$G21="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="39" priority="21">
+    <cfRule type="expression" dxfId="41" priority="21">
       <formula>$G19="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="22">
+    <cfRule type="expression" dxfId="40" priority="22">
       <formula>$G19="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="expression" dxfId="37" priority="19">
+    <cfRule type="expression" dxfId="39" priority="19">
       <formula>$G20="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="20">
+    <cfRule type="expression" dxfId="38" priority="20">
       <formula>$G20="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E32">
-    <cfRule type="expression" dxfId="35" priority="17">
+    <cfRule type="expression" dxfId="37" priority="17">
       <formula>$G31="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="18">
+    <cfRule type="expression" dxfId="36" priority="18">
       <formula>$G31="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="expression" dxfId="33" priority="15">
+    <cfRule type="expression" dxfId="35" priority="15">
       <formula>$G30="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="16">
+    <cfRule type="expression" dxfId="34" priority="16">
       <formula>$G30="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="expression" dxfId="31" priority="13">
+    <cfRule type="expression" dxfId="33" priority="13">
       <formula>$G31="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="14">
+    <cfRule type="expression" dxfId="32" priority="14">
       <formula>$G31="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="expression" dxfId="29" priority="11">
+    <cfRule type="expression" dxfId="31" priority="11">
       <formula>$G32="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="12">
+    <cfRule type="expression" dxfId="30" priority="12">
       <formula>$G32="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="29" priority="9">
       <formula>$G35="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="28" priority="10">
       <formula>$G35="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:F34">
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="27" priority="7">
       <formula>$G33="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="26" priority="8">
       <formula>$G33="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>$G26="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>$G26="○"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G35" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"○,×"</formula1>
     </dataValidation>
@@ -4117,21 +4252,21 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.36328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:8" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4154,8 +4289,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="36.5" thickTop="1">
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="2:8" ht="36.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="46" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="7">
@@ -4173,8 +4308,8 @@
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="2:8" ht="36">
-      <c r="B4" s="43"/>
+    <row r="4" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B4" s="46"/>
       <c r="C4" s="17">
         <v>1.2</v>
       </c>
@@ -4190,8 +4325,8 @@
       <c r="G4" s="19"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="2:8" ht="36">
-      <c r="B5" s="43"/>
+    <row r="5" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B5" s="46"/>
       <c r="C5" s="17">
         <v>1.3</v>
       </c>
@@ -4207,8 +4342,8 @@
       <c r="G5" s="19"/>
       <c r="H5" s="20"/>
     </row>
-    <row r="6" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B6" s="43"/>
+    <row r="6" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="46"/>
       <c r="C6" s="11">
         <v>1.4</v>
       </c>
@@ -4224,8 +4359,8 @@
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="2:8" ht="54.5" thickTop="1">
-      <c r="B7" s="42" t="s">
+    <row r="7" spans="2:8" ht="54.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="7">
@@ -4243,8 +4378,8 @@
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="2:8" ht="72">
-      <c r="B8" s="43"/>
+    <row r="8" spans="2:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="B8" s="46"/>
       <c r="C8" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -4260,8 +4395,8 @@
       <c r="G8" s="19"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" spans="2:8" ht="54">
-      <c r="B9" s="43"/>
+    <row r="9" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B9" s="46"/>
       <c r="C9" s="17">
         <v>2.2999999999999998</v>
       </c>
@@ -4277,8 +4412,8 @@
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B10" s="43"/>
+    <row r="10" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="46"/>
       <c r="C10" s="11">
         <v>2.4</v>
       </c>
@@ -4294,8 +4429,8 @@
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="2:8" ht="90.5" thickTop="1">
-      <c r="B11" s="42" t="s">
+    <row r="11" spans="2:8" ht="90.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="45" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="7">
@@ -4313,8 +4448,8 @@
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="2:8" ht="54">
-      <c r="B12" s="43"/>
+    <row r="12" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B12" s="46"/>
       <c r="C12" s="17">
         <v>3.2</v>
       </c>
@@ -4330,8 +4465,8 @@
       <c r="G12" s="19"/>
       <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="2:8" ht="54">
-      <c r="B13" s="43"/>
+    <row r="13" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B13" s="46"/>
       <c r="C13" s="17">
         <v>3.3</v>
       </c>
@@ -4347,8 +4482,8 @@
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="2:8" ht="54">
-      <c r="B14" s="43"/>
+    <row r="14" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B14" s="46"/>
       <c r="C14" s="17">
         <v>3.4</v>
       </c>
@@ -4364,8 +4499,8 @@
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
     </row>
-    <row r="15" spans="2:8" ht="54">
-      <c r="B15" s="43"/>
+    <row r="15" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B15" s="46"/>
       <c r="C15" s="17">
         <v>3.5</v>
       </c>
@@ -4381,8 +4516,8 @@
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="2:8" ht="54">
-      <c r="B16" s="43"/>
+    <row r="16" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B16" s="46"/>
       <c r="C16" s="17">
         <v>3.6</v>
       </c>
@@ -4398,8 +4533,8 @@
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="2:8" ht="54">
-      <c r="B17" s="43"/>
+    <row r="17" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B17" s="46"/>
       <c r="C17" s="17">
         <v>3.7</v>
       </c>
@@ -4415,8 +4550,8 @@
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
     </row>
-    <row r="18" spans="2:8" ht="90">
-      <c r="B18" s="43"/>
+    <row r="18" spans="2:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="B18" s="46"/>
       <c r="C18" s="17">
         <v>3.8</v>
       </c>
@@ -4432,8 +4567,8 @@
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="2:8" ht="54">
-      <c r="B19" s="43"/>
+    <row r="19" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B19" s="46"/>
       <c r="C19" s="17">
         <v>3.9</v>
       </c>
@@ -4449,8 +4584,8 @@
       <c r="G19" s="19"/>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="2:8" ht="36">
-      <c r="B20" s="43"/>
+    <row r="20" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B20" s="46"/>
       <c r="C20" s="41" t="s">
         <v>67</v>
       </c>
@@ -4466,8 +4601,8 @@
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
     </row>
-    <row r="21" spans="2:8" ht="36">
-      <c r="B21" s="43"/>
+    <row r="21" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B21" s="46"/>
       <c r="C21" s="41" t="s">
         <v>70</v>
       </c>
@@ -4483,8 +4618,8 @@
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="2:8" ht="36">
-      <c r="B22" s="43"/>
+    <row r="22" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B22" s="46"/>
       <c r="C22" s="41" t="s">
         <v>72</v>
       </c>
@@ -4500,8 +4635,8 @@
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="2:8" ht="36">
-      <c r="B23" s="43"/>
+    <row r="23" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B23" s="46"/>
       <c r="C23" s="41" t="s">
         <v>74</v>
       </c>
@@ -4517,8 +4652,8 @@
       <c r="G23" s="19"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="2:8" ht="36">
-      <c r="B24" s="43"/>
+    <row r="24" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B24" s="46"/>
       <c r="C24" s="41" t="s">
         <v>76</v>
       </c>
@@ -4534,8 +4669,8 @@
       <c r="G24" s="19"/>
       <c r="H24" s="20"/>
     </row>
-    <row r="25" spans="2:8" ht="54">
-      <c r="B25" s="43"/>
+    <row r="25" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B25" s="46"/>
       <c r="C25" s="41" t="s">
         <v>78</v>
       </c>
@@ -4551,8 +4686,8 @@
       <c r="G25" s="19"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="2:8" ht="36">
-      <c r="B26" s="43"/>
+    <row r="26" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B26" s="46"/>
       <c r="C26" s="41" t="s">
         <v>81</v>
       </c>
@@ -4568,8 +4703,8 @@
       <c r="G26" s="19"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B27" s="43"/>
+    <row r="27" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="46"/>
       <c r="C27" s="41" t="s">
         <v>83</v>
       </c>
@@ -4585,8 +4720,8 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="2:8" ht="72.5" thickTop="1">
-      <c r="B28" s="42" t="s">
+    <row r="28" spans="2:8" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="45" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="7">
@@ -4604,8 +4739,8 @@
       <c r="G28" s="9"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="2:8" ht="72">
-      <c r="B29" s="43"/>
+    <row r="29" spans="2:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="B29" s="46"/>
       <c r="C29" s="17">
         <v>4.2</v>
       </c>
@@ -4621,8 +4756,8 @@
       <c r="G29" s="19"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="2:8" ht="90">
-      <c r="B30" s="43"/>
+    <row r="30" spans="2:8" ht="90" x14ac:dyDescent="0.2">
+      <c r="B30" s="46"/>
       <c r="C30" s="17">
         <v>4.3</v>
       </c>
@@ -4638,8 +4773,8 @@
       <c r="G30" s="19"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="2:8" ht="54">
-      <c r="B31" s="43"/>
+    <row r="31" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B31" s="46"/>
       <c r="C31" s="17">
         <v>4.4000000000000004</v>
       </c>
@@ -4655,8 +4790,8 @@
       <c r="G31" s="19"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="2:8" ht="36">
-      <c r="B32" s="43"/>
+    <row r="32" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B32" s="46"/>
       <c r="C32" s="17">
         <v>4.5</v>
       </c>
@@ -4672,8 +4807,8 @@
       <c r="G32" s="19"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B33" s="43"/>
+    <row r="33" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="46"/>
       <c r="C33" s="11">
         <v>4.5999999999999996</v>
       </c>
@@ -4689,8 +4824,8 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="2:8" ht="36.5" thickTop="1">
-      <c r="B34" s="42" t="s">
+    <row r="34" spans="2:8" ht="36.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="45" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="7">
@@ -4708,8 +4843,8 @@
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B35" s="43"/>
+    <row r="35" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="46"/>
       <c r="C35" s="11">
         <v>5.2</v>
       </c>
@@ -4725,8 +4860,8 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="2:8" ht="54.5" thickTop="1">
-      <c r="B36" s="42" t="s">
+    <row r="36" spans="2:8" ht="54.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="45" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="23">
@@ -4744,8 +4879,8 @@
       <c r="G36" s="25"/>
       <c r="H36" s="26"/>
     </row>
-    <row r="37" spans="2:8" ht="72">
-      <c r="B37" s="43"/>
+    <row r="37" spans="2:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="B37" s="46"/>
       <c r="C37" s="17">
         <v>6.2</v>
       </c>
@@ -4761,8 +4896,8 @@
       <c r="G37" s="19"/>
       <c r="H37" s="20"/>
     </row>
-    <row r="38" spans="2:8" ht="72">
-      <c r="B38" s="43"/>
+    <row r="38" spans="2:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="B38" s="46"/>
       <c r="C38" s="17">
         <v>6.3</v>
       </c>
@@ -4778,8 +4913,8 @@
       <c r="G38" s="19"/>
       <c r="H38" s="20"/>
     </row>
-    <row r="39" spans="2:8" ht="54">
-      <c r="B39" s="43"/>
+    <row r="39" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B39" s="46"/>
       <c r="C39" s="17">
         <v>6.4</v>
       </c>
@@ -4795,8 +4930,8 @@
       <c r="G39" s="19"/>
       <c r="H39" s="20"/>
     </row>
-    <row r="40" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B40" s="43"/>
+    <row r="40" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="46"/>
       <c r="C40" s="11">
         <v>6.5</v>
       </c>
@@ -4812,8 +4947,8 @@
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="2:8" ht="54.5" thickTop="1">
-      <c r="B41" s="42" t="s">
+    <row r="41" spans="2:8" ht="54.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="45" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="7">
@@ -4831,8 +4966,8 @@
       <c r="G41" s="9"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="2:8" ht="36">
-      <c r="B42" s="43"/>
+    <row r="42" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B42" s="46"/>
       <c r="C42" s="17">
         <v>7.2</v>
       </c>
@@ -4848,8 +4983,8 @@
       <c r="G42" s="19"/>
       <c r="H42" s="20"/>
     </row>
-    <row r="43" spans="2:8" ht="36">
-      <c r="B43" s="43"/>
+    <row r="43" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B43" s="46"/>
       <c r="C43" s="17">
         <v>7.3</v>
       </c>
@@ -4865,8 +5000,8 @@
       <c r="G43" s="19"/>
       <c r="H43" s="20"/>
     </row>
-    <row r="44" spans="2:8" ht="54.5" thickBot="1">
-      <c r="B44" s="43"/>
+    <row r="44" spans="2:8" ht="54.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="46"/>
       <c r="C44" s="11">
         <v>7.4</v>
       </c>
@@ -4882,8 +5017,8 @@
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="2:8" ht="36.5" thickTop="1">
-      <c r="B45" s="42" t="s">
+    <row r="45" spans="2:8" ht="36.6" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="45" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="7">
@@ -4901,8 +5036,8 @@
       <c r="G45" s="9"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="2:8" ht="36.5" thickBot="1">
-      <c r="B46" s="44"/>
+    <row r="46" spans="2:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="50"/>
       <c r="C46" s="27">
         <v>8.1999999999999993</v>
       </c>
@@ -4918,12 +5053,12 @@
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
     </row>
-    <row r="48" spans="2:8" ht="18.5" thickBot="1">
+    <row r="48" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G48" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="7:8">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G49" s="31" t="s">
         <v>24</v>
       </c>
@@ -4932,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="7:8">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G50" s="33" t="s">
         <v>25</v>
       </c>
@@ -4941,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="7:8">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G51" s="33" t="s">
         <v>26</v>
       </c>
@@ -4950,7 +5085,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="7:8" ht="18.5" thickBot="1">
+    <row r="52" spans="7:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G52" s="35" t="s">
         <v>1</v>
       </c>
@@ -4972,90 +5107,90 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C3:H10 C12:H13 C28:H46 D27:H27 C18:H18 C21:H24 C26:H26">
-    <cfRule type="expression" dxfId="21" priority="21">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>$G3="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$G3="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:H11">
-    <cfRule type="expression" dxfId="19" priority="19">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>$G11="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="20">
+    <cfRule type="expression" dxfId="20" priority="20">
       <formula>$G11="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="17" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>$G27="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$G27="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:H17">
-    <cfRule type="expression" dxfId="15" priority="15">
+    <cfRule type="expression" dxfId="17" priority="15">
       <formula>$G15="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>$G15="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:H14">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$G14="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$G14="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:H19">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="13" priority="11">
       <formula>$G19="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$G19="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:H20">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$G20="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$G20="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:E25 G25:H25">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$G25="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$G25="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$G25="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$G25="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$G25="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$G25="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G26="×"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$G26="○"</formula>
     </cfRule>
   </conditionalFormatting>
